--- a/biology/Botanique/Casuarinaceae/Casuarinaceae.xlsx
+++ b/biology/Botanique/Casuarinaceae/Casuarinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Casuarinacées sont une famille de plantes dicotylédones de l'ordre des Fagales ; elle comprend 60-100 espèces réparties en trois ou quatre genres selon les auteurs.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type  Casuarina dérivé de kasuari, mot malais désignant le casoar, en référence à la similitude entre les rameaux pendants de la plante et les plumes de l'oiseau [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type  Casuarina dérivé de kasuari, mot malais désignant le casoar, en référence à la similitude entre les rameaux pendants de la plante et les plumes de l'oiseau .
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Classification de Cronquist attritbue à cette famille l'ordre particulier des Casuarinales.
 La classification phylogénétique la place dans l'ordre des Fagales.
@@ -574,7 +590,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbres ou des arbustes, à l'aspect de prêles, à feuilles très réduites, des régions tempérées à tropicales originaire d'Australie, de Malaisie, de Nouvelle-Calédonie et d'autres îles de l'hémisphère sud.
 Les Casuarinaceae peuvent former des symbioses avec des bactéries filamenteuses (actinomycètes) fixatrices d'azote du genre Frankia aboutissant à la formation de nodosités racinaires: les actinorhizes.
@@ -606,7 +624,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces sont recherchées pour leur bois alors que d'autres sont cultivées comme plantes d'ornement.
 Le filao (Casuarina equisetifolia L.) est sans doute l'arbre le plus représentatif de cette famille.
@@ -638,14 +658,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (30 mai 2010)[2], NCBI  (30 mai 2010)[3] et DELTA Angio           (30 mai 2010)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (30 mai 2010), NCBI  (30 mai 2010) et DELTA Angio           (30 mai 2010) :
 Allocasuarina L.A.S.Johnson
 Casuarina L.
 Ceuthostoma L.A.S.Johnson
 Gymnostoma L.A.S.Johnson
-Selon ITIS      (30 mai 2010)[5] :
+Selon ITIS      (30 mai 2010) :
 Casuarina Rumph. ex L.</t>
         </is>
       </c>
@@ -674,9 +696,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 mai 2010)[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 mai 2010) :
 genre Allocasuarina
 Allocasuarina acutivalvis
 Allocasuarina brachystachya
